--- a/excel_file_2 (1).xlsx
+++ b/excel_file_2 (1).xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User Pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88beb887e885a0a7/Desktop/dataanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30A0F5DD-6AFF-4E07-B9E5-B33A1A297843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{606C946B-2BA8-42D8-975D-9B7FCEF70415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excel_file_2 (1)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'excel_file_2 (1)'!$A$2:$A$101</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'excel_file_2 (1)'!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'excel_file_2 (1)'!$B$2:$B$101</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'excel_file_2 (1)'!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'excel_file_2 (1)'!$C$2:$C$101</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>number_courses</t>
   </si>
@@ -125,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -803,16 +796,26 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -865,93 +868,94 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>'excel_file_2 (1)'!$A$2:$A$101</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>number_courses</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5</c:v>
@@ -1169,8 +1173,8 @@
                 <c:pt idx="99">
                   <c:v>3</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1503,105 +1507,116 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>'excel_file_2 (1)'!$A$2:$A$101</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>number_courses</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>number_courses</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5</c:v>
@@ -1819,8 +1834,8 @@
                 <c:pt idx="99">
                   <c:v>3</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -2170,6 +2185,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3241,11 +3257,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3261,7 +3277,7 @@
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3276,8 +3292,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2">
+        <v>3</v>
       </c>
       <c r="B2">
         <v>4.508</v>
@@ -3287,8 +3303,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
+      <c r="A3">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>9.6000000000000002E-2</v>
@@ -3302,8 +3318,8 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3.133</v>
@@ -3315,12 +3331,12 @@
         <v>5</v>
       </c>
       <c r="E4" s="1">
-        <v>0.20896984325954615</v>
+        <v>0.14720736211685145</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
+      <c r="A5">
+        <v>3</v>
       </c>
       <c r="B5">
         <v>7.9089999999999998</v>
@@ -3332,12 +3348,12 @@
         <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>4.3668395391919287E-2</v>
+        <v>2.1670007461401831E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
+      <c r="A6">
+        <v>3</v>
       </c>
       <c r="B6">
         <v>7.8109999999999999</v>
@@ -3349,12 +3365,12 @@
         <v>7</v>
       </c>
       <c r="E6" s="1">
-        <v>3.3809306684619483E-2</v>
+        <v>1.1584131249663707E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
+      <c r="A7">
+        <v>3</v>
       </c>
       <c r="B7">
         <v>3.2109999999999999</v>
@@ -3366,12 +3382,12 @@
         <v>8</v>
       </c>
       <c r="E7" s="1">
-        <v>2.3439316960423304</v>
+        <v>2.3707370205874168</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>0</v>
+      <c r="A8">
+        <v>3</v>
       </c>
       <c r="B8">
         <v>6.0629999999999997</v>
@@ -3387,8 +3403,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
+      <c r="A9">
+        <v>3</v>
       </c>
       <c r="B9">
         <v>3.4129999999999998</v>
@@ -3398,8 +3414,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>0</v>
+      <c r="A10">
+        <v>3</v>
       </c>
       <c r="B10">
         <v>4.41</v>
@@ -3412,8 +3428,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
+      <c r="A11">
+        <v>3</v>
       </c>
       <c r="B11">
         <v>6.173</v>
@@ -3439,8 +3455,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
+      <c r="A12">
+        <v>3</v>
       </c>
       <c r="B12">
         <v>7.3529999999999998</v>
@@ -3455,21 +3471,21 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>24.334384361402499</v>
+        <v>12.07569652943539</v>
       </c>
       <c r="G12" s="1">
-        <v>24.334384361402499</v>
+        <v>12.07569652943539</v>
       </c>
       <c r="H12" s="1">
-        <v>4.4292527117223948</v>
+        <v>2.1485498142622337</v>
       </c>
       <c r="I12" s="1">
-        <v>3.7913026681592105E-2</v>
+        <v>0.1459388207325957</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
+      <c r="A13">
+        <v>3</v>
       </c>
       <c r="B13">
         <v>0.42299999999999999</v>
@@ -3484,17 +3500,17 @@
         <v>97</v>
       </c>
       <c r="F13" s="1">
-        <v>532.91953218405195</v>
+        <v>545.17822001601905</v>
       </c>
       <c r="G13" s="1">
-        <v>5.494015795711876</v>
+        <v>5.620394020783702</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>0</v>
+      <c r="A14">
+        <v>3</v>
       </c>
       <c r="B14">
         <v>4.218</v>
@@ -3516,8 +3532,8 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>0</v>
+      <c r="A15">
+        <v>3</v>
       </c>
       <c r="B15">
         <v>4.274</v>
@@ -3527,8 +3543,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
+      <c r="A16">
+        <v>3</v>
       </c>
       <c r="B16">
         <v>2.9079999999999999</v>
@@ -3563,8 +3579,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
+      <c r="A17">
+        <v>3</v>
       </c>
       <c r="B17">
         <v>4.26</v>
@@ -3576,33 +3592,33 @@
         <v>14</v>
       </c>
       <c r="E17" s="1">
-        <v>2.5967292240661255</v>
+        <v>3.1842219012605057</v>
       </c>
       <c r="F17" s="1">
-        <v>0.73986150804599848</v>
+        <v>0.65134618131659949</v>
       </c>
       <c r="G17" s="1">
-        <v>3.5097504003474693</v>
+        <v>4.8886782368541324</v>
       </c>
       <c r="H17" s="1">
-        <v>6.8201132045973075E-4</v>
+        <v>4.0184215372243613E-6</v>
       </c>
       <c r="I17" s="1">
-        <v>1.1283089346079607</v>
+        <v>1.8914800330797825</v>
       </c>
       <c r="J17" s="1">
-        <v>4.0651495135242905</v>
+        <v>4.4769637694412285</v>
       </c>
       <c r="K17" s="1">
-        <v>1.1283089346079607</v>
+        <v>1.8914800330797825</v>
       </c>
       <c r="L17" s="1">
-        <v>4.0651495135242905</v>
+        <v>4.4769637694412285</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>0</v>
+      <c r="A18">
+        <v>3</v>
       </c>
       <c r="B18">
         <v>5.7190000000000003</v>
@@ -3614,33 +3630,33 @@
         <v>3</v>
       </c>
       <c r="E18" s="2">
-        <v>0.27781332094572947</v>
+        <v>0.18676864495798309</v>
       </c>
       <c r="F18" s="2">
-        <v>0.13200422634971612</v>
+        <v>0.12741813798579874</v>
       </c>
       <c r="G18" s="2">
-        <v>2.1045789868100457</v>
+        <v>1.4657932372139924</v>
       </c>
       <c r="H18" s="2">
-        <v>3.791302668159189E-2</v>
+        <v>0.14593882073259049</v>
       </c>
       <c r="I18" s="2">
-        <v>1.5821472257609825E-2</v>
+        <v>-6.6121087821160801E-2</v>
       </c>
       <c r="J18" s="2">
-        <v>0.53980516963384906</v>
+        <v>0.43965837773712702</v>
       </c>
       <c r="K18" s="2">
-        <v>1.5821472257609825E-2</v>
+        <v>-6.6121087821160801E-2</v>
       </c>
       <c r="L18" s="2">
-        <v>0.53980516963384906</v>
+        <v>0.43965837773712702</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
+      <c r="A19">
+        <v>3</v>
       </c>
       <c r="B19">
         <v>6.08</v>
@@ -3650,8 +3666,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>0</v>
+      <c r="A20">
+        <v>3</v>
       </c>
       <c r="B20">
         <v>7.7110000000000003</v>
@@ -3661,8 +3677,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
+      <c r="A21">
+        <v>3</v>
       </c>
       <c r="B21">
         <v>3.9769999999999999</v>
@@ -3672,8 +3688,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>0</v>
+      <c r="A22">
+        <v>3</v>
       </c>
       <c r="B22">
         <v>4.7329999999999997</v>
@@ -3685,9 +3701,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>0</v>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
       </c>
       <c r="B23">
         <v>6.1260000000000003</v>
@@ -3697,8 +3713,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
+      <c r="A24">
+        <v>3</v>
       </c>
       <c r="B24">
         <v>2.0510000000000002</v>
@@ -3706,19 +3722,19 @@
       <c r="C24">
         <v>12.209</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>0</v>
+      <c r="A25">
+        <v>3</v>
       </c>
       <c r="B25">
         <v>4.875</v>
@@ -3726,19 +3742,19 @@
       <c r="C25">
         <v>28.042999999999999</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F25" s="1">
-        <v>-3.6119825078490431</v>
+      <c r="E25">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F25">
+        <v>-3.6485278361344551</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>0</v>
+      <c r="A26">
+        <v>3</v>
       </c>
       <c r="B26">
         <v>3.6349999999999998</v>
@@ -3746,19 +3762,19 @@
       <c r="C26">
         <v>16.516999999999999</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>2</v>
       </c>
-      <c r="E26" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F26" s="1">
-        <v>-0.57498250784904315</v>
+      <c r="E26">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F26">
+        <v>-0.61152783613445516</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
+      <c r="A27">
+        <v>3</v>
       </c>
       <c r="B27">
         <v>1.407</v>
@@ -3766,19 +3782,19 @@
       <c r="C27">
         <v>6.6230000000000002</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>3</v>
       </c>
-      <c r="E27" s="1">
-        <v>4.2636091497405024</v>
-      </c>
-      <c r="F27" s="1">
-        <v>3.6453908502594974</v>
+      <c r="E27">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F27">
+        <v>4.1644721638655451</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>0</v>
+      <c r="A28">
+        <v>3</v>
       </c>
       <c r="B28">
         <v>0.50800000000000001</v>
@@ -3786,19 +3802,19 @@
       <c r="C28">
         <v>12.647</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="E28" s="1">
-        <v>4.8192357916319608</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2.9917642083680391</v>
+      <c r="E28">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F28">
+        <v>4.0664721638655443</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>0</v>
+      <c r="A29">
+        <v>8</v>
       </c>
       <c r="B29">
         <v>4.3780000000000001</v>
@@ -3806,14 +3822,14 @@
       <c r="C29">
         <v>26.532</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="E29" s="1">
-        <v>4.2636091497405024</v>
-      </c>
-      <c r="F29" s="1">
-        <v>-1.0526091497405026</v>
+      <c r="E29">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F29">
+        <v>-0.53352783613445531</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3826,14 +3842,14 @@
       <c r="C30">
         <v>9.3330000000000002</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>6</v>
       </c>
-      <c r="E30" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2.6328308130966858</v>
+      <c r="E30">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F30">
+        <v>2.3184721638655446</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3846,14 +3862,14 @@
       <c r="C31">
         <v>8.8369999999999997</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>7</v>
       </c>
-      <c r="E31" s="1">
-        <v>3.9857958287947728</v>
-      </c>
-      <c r="F31" s="1">
-        <v>-0.57279582879477298</v>
+      <c r="E31">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F31">
+        <v>-0.33152783613445536</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3866,14 +3882,14 @@
       <c r="C32">
         <v>24.172000000000001</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>8</v>
       </c>
-      <c r="E32" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.70201749215095699</v>
+      <c r="E32">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F32">
+        <v>0.66547216386554497</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3886,14 +3902,14 @@
       <c r="C33">
         <v>8.1</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>9</v>
       </c>
-      <c r="E33" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2.7428308130966861</v>
+      <c r="E33">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F33">
+        <v>2.4284721638655449</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3906,14 +3922,14 @@
       <c r="C34">
         <v>15.038</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>10</v>
       </c>
-      <c r="E34" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F34" s="1">
-        <v>3.9228308130966858</v>
+      <c r="E34">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F34">
+        <v>3.6084721638655446</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3926,14 +3942,14 @@
       <c r="C35">
         <v>39.965000000000003</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>11</v>
       </c>
-      <c r="E35" s="1">
-        <v>4.5414224706862321</v>
-      </c>
-      <c r="F35" s="1">
-        <v>-4.118422470686232</v>
+      <c r="E35">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F35">
+        <v>-3.3215278361344551</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3946,14 +3962,14 @@
       <c r="C36">
         <v>17.170999999999999</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>12</v>
       </c>
-      <c r="E36" s="1">
-        <v>4.5414224706862321</v>
-      </c>
-      <c r="F36" s="1">
-        <v>-0.32342247068623209</v>
+      <c r="E36">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F36">
+        <v>0.4734721638655448</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3966,14 +3982,14 @@
       <c r="C37">
         <v>43.978000000000002</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>13</v>
       </c>
-      <c r="E37" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0.84383081309668606</v>
+      <c r="E37">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F37">
+        <v>0.52947216386554485</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3986,14 +4002,14 @@
       <c r="C38">
         <v>13.119</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>14</v>
       </c>
-      <c r="E38" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F38" s="1">
-        <v>-0.52216918690331404</v>
+      <c r="E38">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F38">
+        <v>-0.83652783613445525</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -4006,14 +4022,14 @@
       <c r="C39">
         <v>46.453000000000003</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>15</v>
       </c>
-      <c r="E39" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0.55201749215095663</v>
+      <c r="E39">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F39">
+        <v>0.51547216386554462</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -4026,14 +4042,14 @@
       <c r="C40">
         <v>41.357999999999997</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>16</v>
       </c>
-      <c r="E40" s="1">
-        <v>3.9857958287947728</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1.7332041712052275</v>
+      <c r="E40">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F40">
+        <v>1.9744721638655451</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -4046,14 +4062,14 @@
       <c r="C41">
         <v>51.142000000000003</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>17</v>
       </c>
-      <c r="E41" s="1">
-        <v>4.8192357916319608</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1.2607642083680393</v>
+      <c r="E41">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F41">
+        <v>2.3354721638655449</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -4066,14 +4082,14 @@
       <c r="C42">
         <v>7.3360000000000003</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>18</v>
       </c>
-      <c r="E42" s="1">
-        <v>4.2636091497405024</v>
-      </c>
-      <c r="F42" s="1">
-        <v>3.4473908502594979</v>
+      <c r="E42">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F42">
+        <v>3.9664721638655451</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -4086,14 +4102,14 @@
       <c r="C43">
         <v>15.725</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>19</v>
       </c>
-      <c r="E43" s="1">
-        <v>4.8192357916319608</v>
-      </c>
-      <c r="F43" s="1">
-        <v>-0.84223579163196094</v>
+      <c r="E43">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F43">
+        <v>0.2324721638655447</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -4106,14 +4122,14 @@
       <c r="C44">
         <v>19.771000000000001</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>20</v>
       </c>
-      <c r="E44" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1.0250174921509565</v>
+      <c r="E44">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F44">
+        <v>0.98847216386554448</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -4126,14 +4142,14 @@
       <c r="C45">
         <v>10.429</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>21</v>
       </c>
-      <c r="E45" s="1">
-        <v>4.2636091497405024</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1.8623908502594979</v>
+      <c r="E45">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F45">
+        <v>2.3814721638655452</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -4146,14 +4162,14 @@
       <c r="C46">
         <v>9.7420000000000009</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>22</v>
       </c>
-      <c r="E46" s="1">
-        <v>3.9857958287947728</v>
-      </c>
-      <c r="F46" s="1">
-        <v>-1.9347958287947726</v>
+      <c r="E46">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F46">
+        <v>-1.693527836134455</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4166,14 +4182,14 @@
       <c r="C47">
         <v>8.9239999999999995</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>23</v>
       </c>
-      <c r="E47" s="1">
-        <v>4.5414224706862321</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0.33357752931376794</v>
+      <c r="E47">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F47">
+        <v>1.1304721638655448</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4186,14 +4202,14 @@
       <c r="C48">
         <v>16.702999999999999</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>24</v>
       </c>
-      <c r="E48" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F48" s="1">
-        <v>-7.2982507849043365E-2</v>
+      <c r="E48">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F48">
+        <v>-0.10952783613445538</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -4206,14 +4222,14 @@
       <c r="C49">
         <v>22.701000000000001</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>25</v>
       </c>
-      <c r="E49" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F49" s="1">
-        <v>-2.0231691869033139</v>
+      <c r="E49">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F49">
+        <v>-2.3375278361344551</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -4226,14 +4242,14 @@
       <c r="C50">
         <v>26.882000000000001</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>26</v>
       </c>
-      <c r="E50" s="1">
-        <v>4.5414224706862321</v>
-      </c>
-      <c r="F50" s="1">
-        <v>-4.0334224706862321</v>
+      <c r="E50">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F50">
+        <v>-3.2365278361344552</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -4246,14 +4262,14 @@
       <c r="C51">
         <v>19.106000000000002</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>27</v>
       </c>
-      <c r="E51" s="1">
-        <v>4.8192357916319608</v>
-      </c>
-      <c r="F51" s="1">
-        <v>-0.44123579163196069</v>
+      <c r="E51">
+        <v>4.6783710609243707</v>
+      </c>
+      <c r="F51">
+        <v>-0.3003710609243706</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4266,14 +4282,14 @@
       <c r="C52">
         <v>40.601999999999997</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>28</v>
       </c>
-      <c r="E52" s="1">
-        <v>3.9857958287947728</v>
-      </c>
-      <c r="F52" s="1">
-        <v>-3.8297958287947726</v>
+      <c r="E52">
+        <v>4.1180651260504213</v>
+      </c>
+      <c r="F52">
+        <v>-3.9620651260504212</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -4286,14 +4302,14 @@
       <c r="C53">
         <v>22.184000000000001</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>29</v>
       </c>
-      <c r="E53" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F53" s="1">
-        <v>-2.4089825078490432</v>
+      <c r="E53">
+        <v>3.931296481092438</v>
+      </c>
+      <c r="F53">
+        <v>-2.6322964810924381</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -4306,14 +4322,14 @@
       <c r="C54">
         <v>7.8920000000000003</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>30</v>
       </c>
-      <c r="E54" s="1">
-        <v>4.8192357916319608</v>
-      </c>
-      <c r="F54" s="1">
-        <v>-0.95523579163196093</v>
+      <c r="E54">
+        <v>4.6783710609243707</v>
+      </c>
+      <c r="F54">
+        <v>-0.81437106092437084</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -4326,14 +4342,14 @@
       <c r="C55">
         <v>36.652999999999999</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>31</v>
       </c>
-      <c r="E55" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F55" s="1">
-        <v>-1.5071691869033139</v>
+      <c r="E55">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F55">
+        <v>-1.8215278361344551</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -4346,14 +4362,14 @@
       <c r="C56">
         <v>53.158000000000001</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>32</v>
       </c>
-      <c r="E56" s="1">
-        <v>4.8192357916319608</v>
-      </c>
-      <c r="F56" s="1">
-        <v>-3.8872357916319609</v>
+      <c r="E56">
+        <v>4.6783710609243707</v>
+      </c>
+      <c r="F56">
+        <v>-3.7463710609243708</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -4366,14 +4382,14 @@
       <c r="C57">
         <v>18.238</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>33</v>
       </c>
-      <c r="E57" s="1">
-        <v>4.2636091497405024</v>
-      </c>
-      <c r="F57" s="1">
-        <v>2.3303908502594979</v>
+      <c r="E57">
+        <v>4.3048337710084041</v>
+      </c>
+      <c r="F57">
+        <v>2.2891662289915962</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -4386,14 +4402,14 @@
       <c r="C58">
         <v>53.359000000000002</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>34</v>
       </c>
-      <c r="E58" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0.65283081309668622</v>
+      <c r="E58">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F58">
+        <v>0.33847216386554502</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -4406,14 +4422,14 @@
       <c r="C59">
         <v>51.582999999999998</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>35</v>
       </c>
-      <c r="E59" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F59" s="1">
-        <v>4.1128308130966857</v>
+      <c r="E59">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F59">
+        <v>3.798472163865545</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -4426,14 +4442,14 @@
       <c r="C60">
         <v>31.236000000000001</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>36</v>
       </c>
-      <c r="E60" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F60" s="1">
-        <v>-0.74198250784904296</v>
+      <c r="E60">
+        <v>3.931296481092438</v>
+      </c>
+      <c r="F60">
+        <v>-0.96529648109243782</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -4446,14 +4462,14 @@
       <c r="C61">
         <v>51.343000000000004</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>37</v>
       </c>
-      <c r="E61" s="1">
-        <v>4.2636091497405024</v>
-      </c>
-      <c r="F61" s="1">
-        <v>3.0193908502594979</v>
+      <c r="E61">
+        <v>4.3048337710084041</v>
+      </c>
+      <c r="F61">
+        <v>2.9781662289915962</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -4466,14 +4482,14 @@
       <c r="C62">
         <v>10.522</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>38</v>
       </c>
-      <c r="E62" s="1">
-        <v>4.5414224706862321</v>
-      </c>
-      <c r="F62" s="1">
-        <v>1.9915775293137683</v>
+      <c r="E62">
+        <v>4.491602415966387</v>
+      </c>
+      <c r="F62">
+        <v>2.0413975840336134</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -4486,14 +4502,14 @@
       <c r="C63">
         <v>10.843999999999999</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>39</v>
       </c>
-      <c r="E63" s="1">
-        <v>4.2636091497405024</v>
-      </c>
-      <c r="F63" s="1">
-        <v>3.5113908502594979</v>
+      <c r="E63">
+        <v>4.3048337710084041</v>
+      </c>
+      <c r="F63">
+        <v>3.4701662289915962</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -4506,14 +4522,14 @@
       <c r="C64">
         <v>19.59</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>40</v>
       </c>
-      <c r="E64" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F64" s="1">
-        <v>-3.567982507849043</v>
+      <c r="E64">
+        <v>3.931296481092438</v>
+      </c>
+      <c r="F64">
+        <v>-3.7912964810924379</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -4526,14 +4542,14 @@
       <c r="C65">
         <v>21.379000000000001</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>41</v>
       </c>
-      <c r="E65" s="1">
-        <v>4.2636091497405024</v>
-      </c>
-      <c r="F65" s="1">
-        <v>-1.5096091497405024</v>
+      <c r="E65">
+        <v>4.3048337710084041</v>
+      </c>
+      <c r="F65">
+        <v>-1.5508337710084041</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -4546,14 +4562,14 @@
       <c r="C66">
         <v>12.590999999999999</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>42</v>
       </c>
-      <c r="E66" s="1">
-        <v>4.2636091497405024</v>
-      </c>
-      <c r="F66" s="1">
-        <v>-0.67260914974050223</v>
+      <c r="E66">
+        <v>4.3048337710084041</v>
+      </c>
+      <c r="F66">
+        <v>-0.71383377100840395</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4566,14 +4582,14 @@
       <c r="C67">
         <v>13.561999999999999</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>43</v>
       </c>
-      <c r="E67" s="1">
-        <v>3.9857958287947728</v>
-      </c>
-      <c r="F67" s="1">
-        <v>-2.4287958287947728</v>
+      <c r="E67">
+        <v>4.1180651260504213</v>
+      </c>
+      <c r="F67">
+        <v>-2.5610651260504214</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4586,14 +4602,14 @@
       <c r="C68">
         <v>27.568999999999999</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>44</v>
       </c>
-      <c r="E68" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F68" s="1">
-        <v>-1.7539825078490432</v>
+      <c r="E68">
+        <v>3.931296481092438</v>
+      </c>
+      <c r="F68">
+        <v>-1.9772964810924381</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -4606,14 +4622,14 @@
       <c r="C69">
         <v>6.1849999999999996</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>45</v>
       </c>
-      <c r="E69" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F69" s="1">
-        <v>-1.369169186903314</v>
+      <c r="E69">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F69">
+        <v>-1.6835278361344552</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -4626,14 +4642,14 @@
       <c r="C70">
         <v>8.92</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>46</v>
       </c>
-      <c r="E70" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F70" s="1">
-        <v>8.9017492150957001E-2</v>
+      <c r="E70">
+        <v>3.931296481092438</v>
+      </c>
+      <c r="F70">
+        <v>-0.13429648109243786</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -4646,14 +4662,14 @@
       <c r="C71">
         <v>21.4</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>47</v>
       </c>
-      <c r="E71" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1.0710174921509568</v>
+      <c r="E71">
+        <v>3.931296481092438</v>
+      </c>
+      <c r="F71">
+        <v>0.8477035189075619</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4666,14 +4682,14 @@
       <c r="C72">
         <v>16.606000000000002</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>48</v>
       </c>
-      <c r="E72" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F72" s="1">
-        <v>2.2048308130966858</v>
+      <c r="E72">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F72">
+        <v>1.8904721638655446</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -4686,14 +4702,14 @@
       <c r="C73">
         <v>13.416</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>49</v>
       </c>
-      <c r="E73" s="1">
-        <v>3.9857958287947728</v>
-      </c>
-      <c r="F73" s="1">
-        <v>-7.2795828794772977E-2</v>
+      <c r="E73">
+        <v>4.1180651260504213</v>
+      </c>
+      <c r="F73">
+        <v>-0.20506512605042149</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4706,14 +4722,14 @@
       <c r="C74">
         <v>20.398</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>50</v>
       </c>
-      <c r="E74" s="1">
-        <v>4.2636091497405024</v>
-      </c>
-      <c r="F74" s="1">
-        <v>2.4393908502594979</v>
+      <c r="E74">
+        <v>4.3048337710084041</v>
+      </c>
+      <c r="F74">
+        <v>2.3981662289915961</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4726,14 +4742,14 @@
       <c r="C75">
         <v>7.0140000000000002</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75">
         <v>51</v>
       </c>
-      <c r="E75" s="1">
-        <v>4.2636091497405024</v>
-      </c>
-      <c r="F75" s="1">
-        <v>-0.13360914974050253</v>
+      <c r="E75">
+        <v>4.3048337710084041</v>
+      </c>
+      <c r="F75">
+        <v>-0.17483377100840425</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4746,14 +4762,14 @@
       <c r="C76">
         <v>39.951999999999998</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76">
         <v>52</v>
       </c>
-      <c r="E76" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F76" s="1">
-        <v>-2.9369825078490432</v>
+      <c r="E76">
+        <v>3.931296481092438</v>
+      </c>
+      <c r="F76">
+        <v>-3.1602964810924381</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4766,14 +4782,14 @@
       <c r="C77">
         <v>6.2169999999999996</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77">
         <v>53</v>
       </c>
-      <c r="E77" s="1">
-        <v>4.5414224706862321</v>
-      </c>
-      <c r="F77" s="1">
-        <v>1.5075775293137683</v>
+      <c r="E77">
+        <v>4.491602415966387</v>
+      </c>
+      <c r="F77">
+        <v>1.5573975840336134</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4786,14 +4802,14 @@
       <c r="C78">
         <v>36.746000000000002</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78">
         <v>54</v>
       </c>
-      <c r="E78" s="1">
-        <v>4.8192357916319608</v>
-      </c>
-      <c r="F78" s="1">
-        <v>2.7717642083680394</v>
+      <c r="E78">
+        <v>4.6783710609243707</v>
+      </c>
+      <c r="F78">
+        <v>2.9126289390756295</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4806,14 +4822,14 @@
       <c r="C79">
         <v>38.277999999999999</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79">
         <v>55</v>
       </c>
-      <c r="E79" s="1">
-        <v>4.5414224706862321</v>
-      </c>
-      <c r="F79" s="1">
-        <v>-1.6284224706862322</v>
+      <c r="E79">
+        <v>4.491602415966387</v>
+      </c>
+      <c r="F79">
+        <v>-1.5786024159663872</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4826,14 +4842,14 @@
       <c r="C80">
         <v>49.543999999999997</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80">
         <v>56</v>
       </c>
-      <c r="E80" s="1">
-        <v>4.8192357916319608</v>
-      </c>
-      <c r="F80" s="1">
-        <v>2.8217642083680392</v>
+      <c r="E80">
+        <v>4.6783710609243707</v>
+      </c>
+      <c r="F80">
+        <v>2.9626289390756293</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4846,14 +4862,14 @@
       <c r="C81">
         <v>6.3490000000000002</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81">
         <v>57</v>
       </c>
-      <c r="E81" s="1">
-        <v>4.5414224706862321</v>
-      </c>
-      <c r="F81" s="1">
-        <v>3.107577529313768</v>
+      <c r="E81">
+        <v>4.491602415966387</v>
+      </c>
+      <c r="F81">
+        <v>3.157397584033613</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4866,14 +4882,14 @@
       <c r="C82">
         <v>54.320999999999998</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82">
         <v>58</v>
       </c>
-      <c r="E82" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F82" s="1">
-        <v>2.7678308130966864</v>
+      <c r="E82">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F82">
+        <v>2.4534721638655452</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4886,14 +4902,14 @@
       <c r="C83">
         <v>17.704999999999998</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83">
         <v>59</v>
       </c>
-      <c r="E83" s="1">
-        <v>4.8192357916319608</v>
-      </c>
-      <c r="F83" s="1">
-        <v>2.6487642083680392</v>
+      <c r="E83">
+        <v>4.6783710609243707</v>
+      </c>
+      <c r="F83">
+        <v>2.7896289390756293</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -4906,14 +4922,14 @@
       <c r="C84">
         <v>44.098999999999997</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84">
         <v>60</v>
       </c>
-      <c r="E84" s="1">
-        <v>4.2636091497405024</v>
-      </c>
-      <c r="F84" s="1">
-        <v>-3.8876091497405025</v>
+      <c r="E84">
+        <v>4.3048337710084041</v>
+      </c>
+      <c r="F84">
+        <v>-3.9288337710084043</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -4926,14 +4942,14 @@
       <c r="C85">
         <v>16.106000000000002</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85">
         <v>61</v>
       </c>
-      <c r="E85" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F85" s="1">
-        <v>-1.269982507849043</v>
+      <c r="E85">
+        <v>3.931296481092438</v>
+      </c>
+      <c r="F85">
+        <v>-1.4932964810924378</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4946,14 +4962,14 @@
       <c r="C86">
         <v>16.460999999999999</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86">
         <v>62</v>
       </c>
-      <c r="E86" s="1">
-        <v>4.2636091497405024</v>
-      </c>
-      <c r="F86" s="1">
-        <v>-0.65760914974050255</v>
+      <c r="E86">
+        <v>4.3048337710084041</v>
+      </c>
+      <c r="F86">
+        <v>-0.69883377100840427</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4966,14 +4982,14 @@
       <c r="C87">
         <v>39.957000000000001</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87">
         <v>63</v>
       </c>
-      <c r="E87" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F87" s="1">
-        <v>1.4388308130966858</v>
+      <c r="E87">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F87">
+        <v>1.1244721638655446</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4986,14 +5002,14 @@
       <c r="C88">
         <v>23.149000000000001</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88">
         <v>64</v>
       </c>
-      <c r="E88" s="1">
-        <v>4.5414224706862321</v>
-      </c>
-      <c r="F88" s="1">
-        <v>-4.4114224706862322</v>
+      <c r="E88">
+        <v>4.491602415966387</v>
+      </c>
+      <c r="F88">
+        <v>-4.3616024159663871</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -5006,14 +5022,14 @@
       <c r="C89">
         <v>6.0529999999999999</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89">
         <v>65</v>
       </c>
-      <c r="E89" s="1">
-        <v>4.2636091497405024</v>
-      </c>
-      <c r="F89" s="1">
-        <v>-2.1216091497405025</v>
+      <c r="E89">
+        <v>4.3048337710084041</v>
+      </c>
+      <c r="F89">
+        <v>-2.1628337710084042</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -5026,14 +5042,14 @@
       <c r="C90">
         <v>11.253</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90">
         <v>66</v>
       </c>
-      <c r="E90" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F90" s="1">
-        <v>1.7650174921509567</v>
+      <c r="E90">
+        <v>3.931296481092438</v>
+      </c>
+      <c r="F90">
+        <v>1.5417035189075619</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -5046,14 +5062,14 @@
       <c r="C91">
         <v>40.024000000000001</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91">
         <v>67</v>
       </c>
-      <c r="E91" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F91" s="1">
-        <v>-2.8801691869033137</v>
+      <c r="E91">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F91">
+        <v>-3.1945278361344549</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -5066,14 +5082,14 @@
       <c r="C92">
         <v>24.393999999999998</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92">
         <v>68</v>
       </c>
-      <c r="E92" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F92" s="1">
-        <v>-2.3129825078490431</v>
+      <c r="E92">
+        <v>3.931296481092438</v>
+      </c>
+      <c r="F92">
+        <v>-2.536296481092438</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -5086,14 +5102,14 @@
       <c r="C93">
         <v>19.564</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93">
         <v>69</v>
       </c>
-      <c r="E93" s="1">
-        <v>4.2636091497405024</v>
-      </c>
-      <c r="F93" s="1">
-        <v>-0.31560914974050247</v>
+      <c r="E93">
+        <v>4.3048337710084041</v>
+      </c>
+      <c r="F93">
+        <v>-0.35683377100840419</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -5106,14 +5122,14 @@
       <c r="C94">
         <v>23.916</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94">
         <v>70</v>
       </c>
-      <c r="E94" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F94" s="1">
-        <v>2.8017492150957057E-2</v>
+      <c r="E94">
+        <v>3.931296481092438</v>
+      </c>
+      <c r="F94">
+        <v>-0.1952964810924378</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -5126,14 +5142,14 @@
       <c r="C95">
         <v>42.426000000000002</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95">
         <v>71</v>
       </c>
-      <c r="E95" s="1">
-        <v>3.9857958287947728</v>
-      </c>
-      <c r="F95" s="1">
-        <v>-1.467795828794773</v>
+      <c r="E95">
+        <v>4.1180651260504213</v>
+      </c>
+      <c r="F95">
+        <v>-1.6000651260504215</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -5146,14 +5162,14 @@
       <c r="C96">
         <v>24.451000000000001</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96">
         <v>72</v>
       </c>
-      <c r="E96" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F96" s="1">
-        <v>1.202830813096686</v>
+      <c r="E96">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F96">
+        <v>0.88847216386554484</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -5166,14 +5182,14 @@
       <c r="C97">
         <v>19.128</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97">
         <v>73</v>
       </c>
-      <c r="E97" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F97" s="1">
-        <v>-1.801169186903314</v>
+      <c r="E97">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F97">
+        <v>-2.1155278361344552</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -5186,14 +5202,14 @@
       <c r="C98">
         <v>5.609</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98">
         <v>74</v>
       </c>
-      <c r="E98" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F98" s="1">
-        <v>3.2460174921509566</v>
+      <c r="E98">
+        <v>3.931296481092438</v>
+      </c>
+      <c r="F98">
+        <v>3.0227035189075617</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -5206,14 +5222,14 @@
       <c r="C99">
         <v>41.444000000000003</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99">
         <v>75</v>
       </c>
-      <c r="E99" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F99" s="1">
-        <v>-2.627169186903314</v>
+      <c r="E99">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F99">
+        <v>-2.9415278361344552</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -5226,14 +5242,14 @@
       <c r="C100">
         <v>12.026999999999999</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100">
         <v>76</v>
       </c>
-      <c r="E100" s="1">
-        <v>3.9857958287947728</v>
-      </c>
-      <c r="F100" s="1">
-        <v>2.3932041712052268</v>
+      <c r="E100">
+        <v>4.1180651260504213</v>
+      </c>
+      <c r="F100">
+        <v>2.2609348739495783</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -5246,256 +5262,256 @@
       <c r="C101">
         <v>32.356999999999999</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101">
         <v>77</v>
       </c>
-      <c r="E101" s="1">
-        <v>4.8192357916319608</v>
-      </c>
-      <c r="F101" s="1">
-        <v>1.1657642083680395</v>
+      <c r="E101">
+        <v>4.6783710609243707</v>
+      </c>
+      <c r="F101">
+        <v>1.3066289390756296</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D102" s="1">
+      <c r="D102">
         <v>78</v>
       </c>
-      <c r="E102" s="1">
-        <v>4.5414224706862321</v>
-      </c>
-      <c r="F102" s="1">
-        <v>2.9095775293137676</v>
+      <c r="E102">
+        <v>4.491602415966387</v>
+      </c>
+      <c r="F102">
+        <v>2.9593975840336126</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D103" s="1">
+      <c r="D103">
         <v>79</v>
       </c>
-      <c r="E103" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F103" s="1">
-        <v>-2.6251691869033138</v>
+      <c r="E103">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F103">
+        <v>-2.939527836134455</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D104" s="1">
+      <c r="D104">
         <v>80</v>
       </c>
-      <c r="E104" s="1">
-        <v>4.5414224706862321</v>
-      </c>
-      <c r="F104" s="1">
-        <v>3.4155775293137678</v>
+      <c r="E104">
+        <v>4.491602415966387</v>
+      </c>
+      <c r="F104">
+        <v>3.4653975840336129</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D105" s="1">
+      <c r="D105">
         <v>81</v>
       </c>
-      <c r="E105" s="1">
-        <v>4.8192357916319608</v>
-      </c>
-      <c r="F105" s="1">
-        <v>-2.5572357916319608</v>
+      <c r="E105">
+        <v>4.6783710609243707</v>
+      </c>
+      <c r="F105">
+        <v>-2.4163710609243707</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D106" s="1">
+      <c r="D106">
         <v>82</v>
       </c>
-      <c r="E106" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F106" s="1">
-        <v>3.702017492150957</v>
+      <c r="E106">
+        <v>3.931296481092438</v>
+      </c>
+      <c r="F106">
+        <v>3.4787035189075621</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D107" s="1">
+      <c r="D107">
         <v>83</v>
       </c>
-      <c r="E107" s="1">
-        <v>3.9857958287947728</v>
-      </c>
-      <c r="F107" s="1">
-        <v>-0.78879582879477272</v>
+      <c r="E107">
+        <v>4.1180651260504213</v>
+      </c>
+      <c r="F107">
+        <v>-0.92106512605042123</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D108" s="1">
+      <c r="D108">
         <v>84</v>
       </c>
-      <c r="E108" s="1">
-        <v>4.8192357916319608</v>
-      </c>
-      <c r="F108" s="1">
-        <v>-2.8372357916319606</v>
+      <c r="E108">
+        <v>4.6783710609243707</v>
+      </c>
+      <c r="F108">
+        <v>-2.6963710609243705</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D109" s="1">
+      <c r="D109">
         <v>85</v>
       </c>
-      <c r="E109" s="1">
-        <v>4.8192357916319608</v>
-      </c>
-      <c r="F109" s="1">
-        <v>1.3817642083680388</v>
+      <c r="E109">
+        <v>4.6783710609243707</v>
+      </c>
+      <c r="F109">
+        <v>1.5226289390756289</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D110" s="1">
+      <c r="D110">
         <v>86</v>
       </c>
-      <c r="E110" s="1">
-        <v>4.5414224706862321</v>
-      </c>
-      <c r="F110" s="1">
-        <v>-0.47442247068623189</v>
+      <c r="E110">
+        <v>4.491602415966387</v>
+      </c>
+      <c r="F110">
+        <v>-0.42460241596638681</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D111" s="1">
+      <c r="D111">
         <v>87</v>
       </c>
-      <c r="E111" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F111" s="1">
-        <v>-2.397169186903314</v>
+      <c r="E111">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F111">
+        <v>-2.7115278361344552</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D112" s="1">
+      <c r="D112">
         <v>88</v>
       </c>
-      <c r="E112" s="1">
-        <v>3.9857958287947728</v>
-      </c>
-      <c r="F112" s="1">
-        <v>-2.1827958287947729</v>
+      <c r="E112">
+        <v>4.1180651260504213</v>
+      </c>
+      <c r="F112">
+        <v>-2.3150651260504214</v>
       </c>
     </row>
     <row r="113" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D113" s="1">
+      <c r="D113">
         <v>89</v>
       </c>
-      <c r="E113" s="1">
-        <v>4.5414224706862321</v>
-      </c>
-      <c r="F113" s="1">
-        <v>1.8345775293137683</v>
+      <c r="E113">
+        <v>4.491602415966387</v>
+      </c>
+      <c r="F113">
+        <v>1.8843975840336133</v>
       </c>
     </row>
     <row r="114" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D114" s="1">
+      <c r="D114">
         <v>90</v>
       </c>
-      <c r="E114" s="1">
-        <v>4.5414224706862321</v>
-      </c>
-      <c r="F114" s="1">
-        <v>-0.35942247068623168</v>
+      <c r="E114">
+        <v>4.491602415966387</v>
+      </c>
+      <c r="F114">
+        <v>-0.3096024159663866</v>
       </c>
     </row>
     <row r="115" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D115" s="1">
+      <c r="D115">
         <v>91</v>
       </c>
-      <c r="E115" s="1">
-        <v>4.8192357916319608</v>
-      </c>
-      <c r="F115" s="1">
-        <v>-2.0892357916319608</v>
+      <c r="E115">
+        <v>4.6783710609243707</v>
+      </c>
+      <c r="F115">
+        <v>-1.9483710609243707</v>
       </c>
     </row>
     <row r="116" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D116" s="1">
+      <c r="D116">
         <v>92</v>
       </c>
-      <c r="E116" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F116" s="1">
-        <v>1.319017492150957</v>
+      <c r="E116">
+        <v>3.931296481092438</v>
+      </c>
+      <c r="F116">
+        <v>1.0957035189075621</v>
       </c>
     </row>
     <row r="117" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D117" s="1">
+      <c r="D117">
         <v>93</v>
       </c>
-      <c r="E117" s="1">
-        <v>4.8192357916319608</v>
-      </c>
-      <c r="F117" s="1">
-        <v>1.6517642083680393</v>
+      <c r="E117">
+        <v>4.6783710609243707</v>
+      </c>
+      <c r="F117">
+        <v>1.7926289390756294</v>
       </c>
     </row>
     <row r="118" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D118" s="1">
+      <c r="D118">
         <v>94</v>
       </c>
-      <c r="E118" s="1">
-        <v>4.8192357916319608</v>
-      </c>
-      <c r="F118" s="1">
-        <v>-0.90023579163196077</v>
+      <c r="E118">
+        <v>4.6783710609243707</v>
+      </c>
+      <c r="F118">
+        <v>-0.75937106092437068</v>
       </c>
     </row>
     <row r="119" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D119" s="1">
+      <c r="D119">
         <v>95</v>
       </c>
-      <c r="E119" s="1">
-        <v>4.2636091497405024</v>
-      </c>
-      <c r="F119" s="1">
-        <v>-0.70260914974050248</v>
+      <c r="E119">
+        <v>4.3048337710084041</v>
+      </c>
+      <c r="F119">
+        <v>-0.7438337710084042</v>
       </c>
     </row>
     <row r="120" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D120" s="1">
+      <c r="D120">
         <v>96</v>
       </c>
-      <c r="E120" s="1">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F120" s="1">
-        <v>-3.1291691869033138</v>
+      <c r="E120">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F120">
+        <v>-3.443527836134455</v>
       </c>
     </row>
     <row r="121" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D121" s="1">
+      <c r="D121">
         <v>97</v>
       </c>
-      <c r="E121" s="1">
-        <v>3.7079825078490432</v>
-      </c>
-      <c r="F121" s="1">
-        <v>3.4550174921509571</v>
+      <c r="E121">
+        <v>3.931296481092438</v>
+      </c>
+      <c r="F121">
+        <v>3.2317035189075622</v>
       </c>
     </row>
     <row r="122" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D122" s="1">
+      <c r="D122">
         <v>98</v>
       </c>
-      <c r="E122" s="1">
-        <v>4.5414224706862321</v>
-      </c>
-      <c r="F122" s="1">
-        <v>-4.2324224706862319</v>
-      </c>
-    </row>
-    <row r="123" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D123" s="2">
+      <c r="E122">
+        <v>4.491602415966387</v>
+      </c>
+      <c r="F122">
+        <v>-4.1826024159663868</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D123">
         <v>99</v>
       </c>
-      <c r="E123" s="2">
-        <v>3.430169186903314</v>
-      </c>
-      <c r="F123" s="2">
-        <v>2.904830813096686</v>
+      <c r="E123">
+        <v>3.7445278361344552</v>
+      </c>
+      <c r="F123">
+        <v>2.5904721638655448</v>
       </c>
     </row>
     <row r="124" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5503,10 +5519,10 @@
         <v>99</v>
       </c>
       <c r="E124" s="2">
-        <v>3.430169186903314</v>
+        <v>3.7445278361344552</v>
       </c>
       <c r="F124" s="2">
-        <v>2.904830813096686</v>
+        <v>2.5904721638655448</v>
       </c>
     </row>
   </sheetData>
